--- a/results/mp/logistic/corona/confidence/210/desired-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="144">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,145 +40,151 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>complaints</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>problem</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
+    <t>fear</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>worse</t>
+    <t>no</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>vulnerable</t>
   </si>
   <si>
     <t>stop</t>
@@ -193,6 +199,18 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
@@ -217,6 +235,9 @@
     <t>sharing</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
@@ -226,133 +247,136 @@
     <t>special</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>god</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>like</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>funny</t>
+    <t>super</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>kind</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>shares</t>
+    <t>huge</t>
   </si>
   <si>
     <t>team</t>
@@ -364,43 +388,64 @@
     <t>boost</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>article</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your</t>
   </si>
   <si>
     <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -758,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,10 +811,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -827,13 +872,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -845,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -877,13 +922,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9210526315789473</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -895,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K4">
         <v>0.95</v>
@@ -927,13 +972,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -945,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -977,13 +1022,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -995,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K6">
         <v>0.9444444444444444</v>
@@ -1027,13 +1072,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8823529411764706</v>
+        <v>0.88</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1045,10 +1090,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K7">
         <v>0.9393939393939394</v>
@@ -1077,13 +1122,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1095,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K8">
         <v>0.9375</v>
@@ -1148,16 +1193,16 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K9">
-        <v>0.9302325581395349</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1169,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1198,16 +1243,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K10">
-        <v>0.9230769230769231</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1219,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1227,13 +1272,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.863013698630137</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C11">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1245,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K11">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1269,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1277,13 +1322,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8421052631578947</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1295,31 +1340,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>41</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="L12">
+        <v>33</v>
+      </c>
+      <c r="M12">
+        <v>33</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>3</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12">
-        <v>0.9138381201044387</v>
-      </c>
-      <c r="L12">
-        <v>350</v>
-      </c>
-      <c r="M12">
-        <v>350</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1327,13 +1372,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8275862068965517</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1345,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K13">
         <v>0.9090909090909091</v>
@@ -1377,13 +1422,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1395,19 +1440,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K14">
-        <v>0.9014084507042254</v>
+        <v>0.9007832898172323</v>
       </c>
       <c r="L14">
-        <v>128</v>
+        <v>345</v>
       </c>
       <c r="M14">
-        <v>128</v>
+        <v>345</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1419,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1448,16 +1493,16 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K15">
-        <v>0.8947368421052632</v>
+        <v>0.8984375</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1469,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1477,13 +1522,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7826086956521739</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1495,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K16">
-        <v>0.8936170212765957</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1519,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1527,13 +1572,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7692307692307693</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1545,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K17">
-        <v>0.8928571428571429</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1569,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1577,13 +1622,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7647058823529411</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C18">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1595,31 +1640,31 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>12</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18">
-        <v>0.8875</v>
-      </c>
-      <c r="L18">
-        <v>142</v>
-      </c>
-      <c r="M18">
-        <v>142</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1627,13 +1672,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1645,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K19">
-        <v>0.8867924528301887</v>
+        <v>0.8875</v>
       </c>
       <c r="L19">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="M19">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1669,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1677,13 +1722,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7419354838709677</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1695,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K20">
-        <v>0.8828125</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L20">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="M20">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1719,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1748,16 +1793,16 @@
         <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K21">
-        <v>0.8666666666666667</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1769,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1777,13 +1822,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7368421052631579</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1795,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K22">
         <v>0.8658536585365854</v>
@@ -1827,13 +1872,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7333333333333333</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1845,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>50</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>8</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K23">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L23">
-        <v>31</v>
-      </c>
-      <c r="M23">
-        <v>31</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1877,13 +1922,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1895,19 +1940,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K24">
-        <v>0.8448275862068966</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L24">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1919,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1927,13 +1972,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6976744186046512</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C25">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1945,19 +1990,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K25">
-        <v>0.8333333333333334</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1969,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1977,13 +2022,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6956521739130435</v>
+        <v>0.7015503875968992</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>362</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>362</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1995,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K26">
-        <v>0.8235294117647058</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2019,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2027,13 +2072,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6949152542372882</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C27">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2045,19 +2090,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K27">
-        <v>0.8214285714285714</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2069,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2077,13 +2122,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6842105263157895</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2095,19 +2140,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K28">
-        <v>0.8095238095238095</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2119,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2127,13 +2172,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6772486772486772</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C29">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2145,10 +2190,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K29">
         <v>0.7916666666666666</v>
@@ -2177,13 +2222,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6666666666666666</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2195,19 +2240,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K30">
-        <v>0.78</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2219,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2227,13 +2272,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6666666666666666</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2245,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K31">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2269,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2277,13 +2322,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.65625</v>
+        <v>0.671957671957672</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2295,19 +2340,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K32">
-        <v>0.7692307692307693</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2319,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2327,13 +2372,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6538461538461539</v>
+        <v>0.6510067114093959</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2345,19 +2390,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K33">
-        <v>0.7647058823529411</v>
+        <v>0.7617647058823529</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2369,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2377,13 +2422,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6174496644295302</v>
+        <v>0.65</v>
       </c>
       <c r="C34">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2395,19 +2440,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K34">
-        <v>0.7617647058823529</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L34">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2419,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>81</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2427,13 +2472,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5945945945945946</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2445,19 +2490,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K35">
         <v>0.75</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2469,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2477,13 +2522,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5909090909090909</v>
+        <v>0.625</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2495,19 +2540,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K36">
         <v>0.75</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2519,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2527,13 +2572,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5861111111111111</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C37">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2545,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K37">
-        <v>0.7428571428571429</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2569,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2577,13 +2622,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5833333333333334</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2595,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K38">
-        <v>0.7368421052631579</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2619,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2627,13 +2672,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5769230769230769</v>
+        <v>0.6027777777777777</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2645,31 +2690,31 @@
         <v>0</v>
       </c>
       <c r="H39">
+        <v>143</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K39">
+        <v>0.725</v>
+      </c>
+      <c r="L39">
+        <v>29</v>
+      </c>
+      <c r="M39">
+        <v>29</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>11</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K39">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L39">
-        <v>16</v>
-      </c>
-      <c r="M39">
-        <v>16</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2677,13 +2722,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5641025641025641</v>
+        <v>0.5625</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2695,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K40">
-        <v>0.725</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2719,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2727,13 +2772,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2745,19 +2790,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K41">
-        <v>0.7238493723849372</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L41">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M41">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2769,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2798,16 +2843,16 @@
         <v>15</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K42">
-        <v>0.7210884353741497</v>
+        <v>0.7</v>
       </c>
       <c r="L42">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="M42">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2816,10 +2861,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2827,49 +2872,49 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5161290322580645</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C43">
+        <v>28</v>
+      </c>
+      <c r="D43">
+        <v>28</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>27</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K43">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="L43">
+        <v>35</v>
+      </c>
+      <c r="M43">
+        <v>35</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>16</v>
-      </c>
-      <c r="D43">
-        <v>16</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>15</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K43">
-        <v>0.7127659574468085</v>
-      </c>
-      <c r="L43">
-        <v>67</v>
-      </c>
-      <c r="M43">
-        <v>67</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2898,16 +2943,16 @@
         <v>37</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K44">
-        <v>0.7078651685393258</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L44">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M44">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2919,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2927,13 +2972,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4516129032258064</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2945,13 +2990,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K45">
-        <v>0.7037037037037037</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L45">
         <v>19</v>
@@ -2969,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2977,13 +3022,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4181818181818182</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2995,19 +3040,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K46">
-        <v>0.696969696969697</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3019,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3027,13 +3072,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3928571428571428</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3045,19 +3090,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K47">
-        <v>0.6956521739130435</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3069,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3077,13 +3122,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3766233766233766</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D48">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3095,19 +3140,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K48">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L48">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3119,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3127,13 +3172,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3636363636363636</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="C49">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3145,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K49">
         <v>0.6666666666666666</v>
@@ -3177,13 +3222,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3015873015873016</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C50">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3195,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K50">
         <v>0.6666666666666666</v>
@@ -3227,13 +3272,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2745098039215687</v>
+        <v>0.325</v>
       </c>
       <c r="C51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3245,19 +3290,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K51">
-        <v>0.6428571428571429</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L51">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M51">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3269,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3277,13 +3322,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.225</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3295,19 +3340,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K52">
-        <v>0.625</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3319,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3327,13 +3372,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1662198391420912</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D53">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3345,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>311</v>
+        <v>37</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K53">
-        <v>0.6222222222222222</v>
+        <v>0.625</v>
       </c>
       <c r="L53">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3369,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3377,115 +3422,187 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.002608346709470305</v>
+        <v>0.2125</v>
       </c>
       <c r="C54">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>17</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>63</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K54">
+        <v>0.6229508196721312</v>
+      </c>
+      <c r="L54">
+        <v>38</v>
+      </c>
+      <c r="M54">
+        <v>38</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.1742627345844504</v>
+      </c>
+      <c r="C55">
+        <v>65</v>
+      </c>
+      <c r="D55">
+        <v>65</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>308</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K55">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L55">
+        <v>28</v>
+      </c>
+      <c r="M55">
+        <v>28</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.1</v>
+      </c>
+      <c r="C56">
+        <v>30</v>
+      </c>
+      <c r="D56">
+        <v>30</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>270</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K56">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L56">
         <v>13</v>
       </c>
-      <c r="D54">
-        <v>25</v>
-      </c>
-      <c r="E54">
-        <v>0.48</v>
-      </c>
-      <c r="F54">
-        <v>0.52</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>4971</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K54">
-        <v>0.6190476190476191</v>
-      </c>
-      <c r="L54">
+      <c r="M56">
         <v>13</v>
       </c>
-      <c r="M54">
-        <v>13</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
-      <c r="J55" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K55">
+    <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.008373590982286634</v>
+      </c>
+      <c r="C57">
+        <v>26</v>
+      </c>
+      <c r="D57">
+        <v>28</v>
+      </c>
+      <c r="E57">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F57">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>3079</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K57">
         <v>0.6153846153846154</v>
       </c>
-      <c r="L55">
+      <c r="L57">
         <v>16</v>
       </c>
-      <c r="M55">
+      <c r="M57">
         <v>16</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="J56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K56">
-        <v>0.5806451612903226</v>
-      </c>
-      <c r="L56">
-        <v>18</v>
-      </c>
-      <c r="M56">
-        <v>18</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="J57" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K57">
-        <v>0.5652173913043478</v>
-      </c>
-      <c r="L57">
-        <v>13</v>
-      </c>
-      <c r="M57">
-        <v>13</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3501,17 +3618,41 @@
       </c>
     </row>
     <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.007154882154882155</v>
+      </c>
+      <c r="C58">
+        <v>17</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <v>0.15</v>
+      </c>
+      <c r="F58">
+        <v>0.85</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>2359</v>
+      </c>
       <c r="J58" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K58">
-        <v>0.5476190476190477</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L58">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M58">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3523,21 +3664,45 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.006073752711496746</v>
+      </c>
+      <c r="C59">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>18</v>
+      </c>
+      <c r="E59">
+        <v>0.22</v>
+      </c>
+      <c r="F59">
+        <v>0.78</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2291</v>
+      </c>
       <c r="J59" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K59">
-        <v>0.5416666666666666</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3549,21 +3714,45 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.003012048192771084</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>31</v>
+      </c>
+      <c r="E60">
+        <v>0.52</v>
+      </c>
+      <c r="F60">
+        <v>0.48</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>4965</v>
+      </c>
       <c r="J60" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K60">
-        <v>0.5205479452054794</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="L60">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M60">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3575,21 +3764,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K61">
-        <v>0.484375</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L61">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M61">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3601,21 +3790,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K62">
-        <v>0.4642857142857143</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3627,21 +3816,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K63">
-        <v>0.3728813559322034</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L63">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M63">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3653,15 +3842,15 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K64">
-        <v>0.3636363636363636</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L64">
         <v>16</v>
@@ -3679,21 +3868,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K65">
-        <v>0.360655737704918</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L65">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3705,21 +3894,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K66">
-        <v>0.3508771929824561</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3731,21 +3920,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K67">
-        <v>0.2948717948717949</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3757,21 +3946,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K68">
-        <v>0.1926605504587156</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="L68">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M68">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3783,21 +3972,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K69">
-        <v>0.02559414990859232</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="L69">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3809,33 +3998,293 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>533</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K70">
-        <v>0.005620082427875608</v>
+        <v>0.25</v>
       </c>
       <c r="L70">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M70">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N70">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>2654</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K71">
+        <v>0.1926605504587156</v>
+      </c>
+      <c r="L71">
+        <v>21</v>
+      </c>
+      <c r="M71">
+        <v>21</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K72">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="L72">
+        <v>20</v>
+      </c>
+      <c r="M72">
+        <v>20</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K73">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="L73">
+        <v>20</v>
+      </c>
+      <c r="M73">
+        <v>20</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K74">
+        <v>0.03419516263552961</v>
+      </c>
+      <c r="L74">
+        <v>41</v>
+      </c>
+      <c r="M74">
+        <v>42</v>
+      </c>
+      <c r="N74">
+        <v>0.98</v>
+      </c>
+      <c r="O74">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K75">
+        <v>0.02925045703839122</v>
+      </c>
+      <c r="L75">
+        <v>16</v>
+      </c>
+      <c r="M75">
+        <v>16</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K76">
+        <v>0.00900562851782364</v>
+      </c>
+      <c r="L76">
+        <v>24</v>
+      </c>
+      <c r="M76">
+        <v>32</v>
+      </c>
+      <c r="N76">
+        <v>0.75</v>
+      </c>
+      <c r="O76">
+        <v>0.25</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K77">
+        <v>0.005635566687539136</v>
+      </c>
+      <c r="L77">
+        <v>18</v>
+      </c>
+      <c r="M77">
+        <v>25</v>
+      </c>
+      <c r="N77">
+        <v>0.72</v>
+      </c>
+      <c r="O77">
+        <v>0.28</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K78">
+        <v>0.003212206384260189</v>
+      </c>
+      <c r="L78">
+        <v>16</v>
+      </c>
+      <c r="M78">
+        <v>31</v>
+      </c>
+      <c r="N78">
+        <v>0.52</v>
+      </c>
+      <c r="O78">
+        <v>0.48</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>4965</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K79">
+        <v>0.00301065308012969</v>
+      </c>
+      <c r="L79">
+        <v>13</v>
+      </c>
+      <c r="M79">
+        <v>23</v>
+      </c>
+      <c r="N79">
+        <v>0.57</v>
+      </c>
+      <c r="O79">
+        <v>0.43</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K80">
+        <v>0.002521823472356935</v>
+      </c>
+      <c r="L80">
+        <v>13</v>
+      </c>
+      <c r="M80">
+        <v>23</v>
+      </c>
+      <c r="N80">
+        <v>0.57</v>
+      </c>
+      <c r="O80">
+        <v>0.43</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>5142</v>
       </c>
     </row>
   </sheetData>
